--- a/Output/Drive/18. Turismo.xlsx
+++ b/Output/Drive/18. Turismo.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">CVEGEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Hospedajes</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t xml:space="preserve">13001</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t xml:space="preserve">13002</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t xml:space="preserve">13003</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t xml:space="preserve">13004</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t xml:space="preserve">13005</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
-  </si>
-  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -155,21 +137,12 @@
     <t xml:space="preserve">13006</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13007</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
-  </si>
-  <si>
     <t xml:space="preserve">13008</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
-  </si>
-  <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
@@ -179,24 +152,15 @@
     <t xml:space="preserve">13010</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
-  </si>
-  <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">13011</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
-  </si>
-  <si>
     <t xml:space="preserve">13013</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
-  </si>
-  <si>
     <t xml:space="preserve">61</t>
   </si>
   <si>
@@ -209,45 +173,27 @@
     <t xml:space="preserve">13012</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
-  </si>
-  <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
     <t xml:space="preserve">13014</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
-  </si>
-  <si>
     <t xml:space="preserve">13015</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">13017</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13018</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13019</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
@@ -260,42 +206,24 @@
     <t xml:space="preserve">13016</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">13009</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
-  </si>
-  <si>
     <t xml:space="preserve">13020</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13021</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
-  </si>
-  <si>
     <t xml:space="preserve">13022</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13023</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
-  </si>
-  <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
@@ -305,9 +233,6 @@
     <t xml:space="preserve">13024</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">142</t>
   </si>
   <si>
@@ -326,27 +251,15 @@
     <t xml:space="preserve">13025</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13026</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13027</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13028</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
-  </si>
-  <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
@@ -365,9 +278,6 @@
     <t xml:space="preserve">13029</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
@@ -380,9 +290,6 @@
     <t xml:space="preserve">13030</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">63</t>
   </si>
   <si>
@@ -395,51 +302,27 @@
     <t xml:space="preserve">13031</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
-  </si>
-  <si>
     <t xml:space="preserve">13032</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13033</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13040</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
-  </si>
-  <si>
     <t xml:space="preserve">13034</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13035</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13037</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13051</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
-  </si>
-  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
@@ -452,9 +335,6 @@
     <t xml:space="preserve">13038</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
-  </si>
-  <si>
     <t xml:space="preserve">49</t>
   </si>
   <si>
@@ -467,51 +347,30 @@
     <t xml:space="preserve">13039</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
-  </si>
-  <si>
     <t xml:space="preserve">82</t>
   </si>
   <si>
     <t xml:space="preserve">13041</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">59</t>
   </si>
   <si>
     <t xml:space="preserve">13042</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13043</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">13044</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13045</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13048</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
-  </si>
-  <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
@@ -533,81 +392,42 @@
     <t xml:space="preserve">13047</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
-  </si>
-  <si>
     <t xml:space="preserve">13049</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
-  </si>
-  <si>
     <t xml:space="preserve">13050</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
-  </si>
-  <si>
     <t xml:space="preserve">13036</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13052</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">13053</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13046</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13054</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">13056</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13055</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
-  </si>
-  <si>
     <t xml:space="preserve">13057</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13058</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13059</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">47</t>
   </si>
   <si>
@@ -617,66 +437,39 @@
     <t xml:space="preserve">13060</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
-  </si>
-  <si>
     <t xml:space="preserve">13061</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
-  </si>
-  <si>
     <t xml:space="preserve">97</t>
   </si>
   <si>
     <t xml:space="preserve">13062</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13063</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">13064</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13065</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
-  </si>
-  <si>
     <t xml:space="preserve">13067</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
-  </si>
-  <si>
     <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">13068</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13069</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">215</t>
   </si>
   <si>
@@ -686,45 +479,24 @@
     <t xml:space="preserve">13070</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13071</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13072</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13073</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
-  </si>
-  <si>
     <t xml:space="preserve">13074</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13075</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">13076</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
-  </si>
-  <si>
     <t xml:space="preserve">228</t>
   </si>
   <si>
@@ -734,9 +506,6 @@
     <t xml:space="preserve">13077</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
-  </si>
-  <si>
     <t xml:space="preserve">55</t>
   </si>
   <si>
@@ -752,49 +521,25 @@
     <t xml:space="preserve">13066</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13078</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13079</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13080</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
-  </si>
-  <si>
     <t xml:space="preserve">13081</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
-  </si>
-  <si>
     <t xml:space="preserve">13082</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13083</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
-  </si>
-  <si>
     <t xml:space="preserve">13084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimapán</t>
   </si>
 </sst>
 </file>
@@ -1169,1178 +914,1098 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -2353,283 +2018,262 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
         <v>62</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -2642,424 +2286,394 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35"/>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M39" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" t="s">
-        <v>112</v>
-      </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -3072,1867 +2686,1743 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M45" t="s">
         <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>19</v>
-      </c>
-      <c r="O45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="M47" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" t="s">
         <v>19</v>
       </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" t="s">
-        <v>147</v>
-      </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L50" t="s">
         <v>71</v>
       </c>
       <c r="M50" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
-      </c>
-      <c r="O50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M52" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
         <v>27</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53" t="s">
-        <v>95</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55" t="s">
-        <v>187</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
       <c r="J55" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M56" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N56" t="s">
-        <v>35</v>
-      </c>
-      <c r="O56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
         <v>35</v>
       </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J58" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
       </c>
       <c r="N58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N59" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M60" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N60" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" t="s">
         <v>35</v>
       </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s">
-        <v>53</v>
-      </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H62" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="M62" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s">
-        <v>17</v>
-      </c>
-      <c r="O62" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J63" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="J64" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="N64" t="s">
-        <v>17</v>
-      </c>
-      <c r="O64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N65" t="s">
-        <v>19</v>
-      </c>
-      <c r="O65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M66" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N66" t="s">
-        <v>19</v>
-      </c>
-      <c r="O66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="J67" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M67" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N67" t="s">
-        <v>19</v>
-      </c>
-      <c r="O67" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J68" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N68" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="J69" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="L69" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
         <v>27</v>
       </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" t="s">
-        <v>148</v>
-      </c>
-      <c r="K70" t="s">
-        <v>63</v>
-      </c>
-      <c r="L70" t="s">
-        <v>19</v>
-      </c>
       <c r="M70" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J72" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
       </c>
       <c r="N72" t="s">
-        <v>19</v>
-      </c>
-      <c r="O72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N73" t="s">
-        <v>19</v>
-      </c>
-      <c r="O73" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M74" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="N74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O74" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J75" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K75" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M75" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N75" t="s">
-        <v>19</v>
-      </c>
-      <c r="O75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>161</v>
+      </c>
+      <c r="J76" t="s">
         <v>28</v>
       </c>
-      <c r="I76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s">
-        <v>237</v>
-      </c>
       <c r="K76" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="M76" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="N76" t="s">
-        <v>27</v>
-      </c>
-      <c r="O76" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="J77" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="K77" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="L77" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="M77" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="N77" t="s">
-        <v>34</v>
-      </c>
-      <c r="O77" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="J78" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N78" t="s">
-        <v>19</v>
-      </c>
-      <c r="O78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" t="s">
-        <v>248</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79"/>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
       <c r="J79" t="s">
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N79" t="s">
-        <v>19</v>
-      </c>
-      <c r="O79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
-      <c r="O80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" t="s">
-        <v>252</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="I81"/>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
       <c r="J81" t="s">
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N81" t="s">
-        <v>19</v>
-      </c>
-      <c r="O81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="K82" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M82" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J83" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="K83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M83" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="J84" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M84" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N84" t="s">
-        <v>19</v>
-      </c>
-      <c r="O84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M85" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Drive/18. Turismo.xlsx
+++ b/Output/Drive/18. Turismo.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
-    <t xml:space="preserve">CVEGEO</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Total Hospedajes</t>
